--- a/filmsDatasetvPM2.xlsx
+++ b/filmsDatasetvPM2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveeduisegiunl.sharepoint.com/sites/DataVisualization613/Shared Documents/General/Project Development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{83C38095-1268-4C3F-9D9B-77F8B6E5F6AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F148EDE5-5297-491D-8974-5C12230C90FE}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{83C38095-1268-4C3F-9D9B-77F8B6E5F6AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{350A315A-0682-4571-A584-AAEA31CE3C6E}"/>
   <bookViews>
     <workbookView xWindow="6075" yWindow="1530" windowWidth="19620" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -913,7 +913,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,7 +1002,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1118,6 +1118,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C7DBDA9A0FCFE4EB2306C7901F5B9CC" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="429478474bd64f3a019414ba0eb84078">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa2efedb-9568-4b4b-9c5f-fb16b95e3a3d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd96260270e5d026ba56717c417d1a23" ns2:_="">
     <xsd:import namespace="aa2efedb-9568-4b4b-9c5f-fb16b95e3a3d"/>
@@ -1275,12 +1281,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1291,6 +1291,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73ABB122-6678-40C3-944C-F7929FA45569}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aa2efedb-9568-4b4b-9c5f-fb16b95e3a3d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C969E89-6E40-4FEF-ADFE-FA17497EF82B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1308,22 +1324,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73ABB122-6678-40C3-944C-F7929FA45569}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aa2efedb-9568-4b4b-9c5f-fb16b95e3a3d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54D481F6-218C-41C9-8E40-DFB50DCA8744}">
   <ds:schemaRefs>

--- a/filmsDatasetvPM2.xlsx
+++ b/filmsDatasetvPM2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveeduisegiunl.sharepoint.com/sites/DataVisualization613/Shared Documents/General/Project Development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{83C38095-1268-4C3F-9D9B-77F8B6E5F6AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{350A315A-0682-4571-A584-AAEA31CE3C6E}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{83C38095-1268-4C3F-9D9B-77F8B6E5F6AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{06E657AB-5928-48F1-94CC-0F64488982DD}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="1530" windowWidth="19620" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19950" yWindow="2025" windowWidth="19620" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="7" r:id="rId1"/>
@@ -913,7 +913,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1078,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1118,12 +1118,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C7DBDA9A0FCFE4EB2306C7901F5B9CC" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="429478474bd64f3a019414ba0eb84078">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa2efedb-9568-4b4b-9c5f-fb16b95e3a3d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd96260270e5d026ba56717c417d1a23" ns2:_="">
     <xsd:import namespace="aa2efedb-9568-4b4b-9c5f-fb16b95e3a3d"/>
@@ -1281,6 +1275,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1291,22 +1291,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73ABB122-6678-40C3-944C-F7929FA45569}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aa2efedb-9568-4b4b-9c5f-fb16b95e3a3d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C969E89-6E40-4FEF-ADFE-FA17497EF82B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1324,6 +1308,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73ABB122-6678-40C3-944C-F7929FA45569}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aa2efedb-9568-4b4b-9c5f-fb16b95e3a3d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54D481F6-218C-41C9-8E40-DFB50DCA8744}">
   <ds:schemaRefs>
